--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H2">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7791006666666668</v>
+        <v>0.006825333333333333</v>
       </c>
       <c r="N2">
-        <v>2.337302</v>
+        <v>0.020476</v>
       </c>
       <c r="O2">
-        <v>0.8681200071906854</v>
+        <v>0.0506148883313352</v>
       </c>
       <c r="P2">
-        <v>0.8681200071906854</v>
+        <v>0.0506148883313352</v>
       </c>
       <c r="Q2">
-        <v>0.5182881483926668</v>
+        <v>0.00467403831911111</v>
       </c>
       <c r="R2">
-        <v>4.664593335534001</v>
+        <v>0.042066344872</v>
       </c>
       <c r="S2">
-        <v>0.3230841317977485</v>
+        <v>0.01148102839966778</v>
       </c>
       <c r="T2">
-        <v>0.3230841317977485</v>
+        <v>0.01148102839966779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H3">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I3">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J3">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.148515</v>
       </c>
       <c r="O3">
-        <v>0.05516139671635271</v>
+        <v>0.3671161428271267</v>
       </c>
       <c r="P3">
-        <v>0.05516139671635271</v>
+        <v>0.3671161428271267</v>
       </c>
       <c r="Q3">
-        <v>0.032932656695</v>
+        <v>0.03390138703666666</v>
       </c>
       <c r="R3">
-        <v>0.296393910255</v>
+        <v>0.30511248333</v>
       </c>
       <c r="S3">
-        <v>0.02052915705113957</v>
+        <v>0.08327334112017293</v>
       </c>
       <c r="T3">
-        <v>0.02052915705113957</v>
+        <v>0.08327334112017294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H4">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I4">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J4">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06885166666666667</v>
+        <v>0.078518</v>
       </c>
       <c r="N4">
-        <v>0.206555</v>
+        <v>0.235554</v>
       </c>
       <c r="O4">
-        <v>0.07671859609296189</v>
+        <v>0.582268968841538</v>
       </c>
       <c r="P4">
-        <v>0.07671859609296189</v>
+        <v>0.582268968841538</v>
       </c>
       <c r="Q4">
-        <v>0.04580281388166667</v>
+        <v>0.05376970219866666</v>
       </c>
       <c r="R4">
-        <v>0.412225324935</v>
+        <v>0.483927319788</v>
       </c>
       <c r="S4">
-        <v>0.02855199834830242</v>
+        <v>0.1320766831244064</v>
       </c>
       <c r="T4">
-        <v>0.02855199834830242</v>
+        <v>0.1320766831244064</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.983764</v>
       </c>
       <c r="I5">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J5">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.7791006666666668</v>
+        <v>0.006825333333333333</v>
       </c>
       <c r="N5">
-        <v>2.337302</v>
+        <v>0.020476</v>
       </c>
       <c r="O5">
-        <v>0.8681200071906854</v>
+        <v>0.0506148883313352</v>
       </c>
       <c r="P5">
-        <v>0.8681200071906854</v>
+        <v>0.0506148883313352</v>
       </c>
       <c r="Q5">
-        <v>0.2554837294142223</v>
+        <v>0.002238172407111111</v>
       </c>
       <c r="R5">
-        <v>2.299353564728</v>
+        <v>0.020143551664</v>
       </c>
       <c r="S5">
-        <v>0.1592603249027194</v>
+        <v>0.005497712944356505</v>
       </c>
       <c r="T5">
-        <v>0.1592603249027193</v>
+        <v>0.005497712944356505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.983764</v>
       </c>
       <c r="I6">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J6">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.148515</v>
       </c>
       <c r="O6">
-        <v>0.05516139671635271</v>
+        <v>0.3671161428271267</v>
       </c>
       <c r="P6">
-        <v>0.05516139671635271</v>
+        <v>0.3671161428271267</v>
       </c>
       <c r="Q6">
         <v>0.01623374560666667</v>
@@ -818,10 +818,10 @@
         <v>0.14610371046</v>
       </c>
       <c r="S6">
-        <v>0.01011959393904911</v>
+        <v>0.03987560255572897</v>
       </c>
       <c r="T6">
-        <v>0.01011959393904911</v>
+        <v>0.03987560255572897</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.983764</v>
       </c>
       <c r="I7">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J7">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.06885166666666667</v>
+        <v>0.078518</v>
       </c>
       <c r="N7">
-        <v>0.206555</v>
+        <v>0.235554</v>
       </c>
       <c r="O7">
-        <v>0.07671859609296189</v>
+        <v>0.582268968841538</v>
       </c>
       <c r="P7">
-        <v>0.07671859609296189</v>
+        <v>0.582268968841538</v>
       </c>
       <c r="Q7">
-        <v>0.02257793033555556</v>
+        <v>0.02574772725066667</v>
       </c>
       <c r="R7">
-        <v>0.20320137302</v>
+        <v>0.231729545256</v>
       </c>
       <c r="S7">
-        <v>0.014074354281253</v>
+        <v>0.06324517849653019</v>
       </c>
       <c r="T7">
-        <v>0.014074354281253</v>
+        <v>0.06324517849653019</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H8">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I8">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J8">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.7791006666666668</v>
+        <v>0.006825333333333333</v>
       </c>
       <c r="N8">
-        <v>2.337302</v>
+        <v>0.020476</v>
       </c>
       <c r="O8">
-        <v>0.8681200071906854</v>
+        <v>0.0506148883313352</v>
       </c>
       <c r="P8">
-        <v>0.8681200071906854</v>
+        <v>0.0506148883313352</v>
       </c>
       <c r="Q8">
-        <v>0.6188570594482222</v>
+        <v>0.01369360256355556</v>
       </c>
       <c r="R8">
-        <v>5.569713535034</v>
+        <v>0.123242423072</v>
       </c>
       <c r="S8">
-        <v>0.3857755504902175</v>
+        <v>0.03363614698731091</v>
       </c>
       <c r="T8">
-        <v>0.3857755504902175</v>
+        <v>0.03363614698731091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H9">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I9">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J9">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.148515</v>
       </c>
       <c r="O9">
-        <v>0.05516139671635271</v>
+        <v>0.3671161428271267</v>
       </c>
       <c r="P9">
-        <v>0.05516139671635271</v>
+        <v>0.3671161428271267</v>
       </c>
       <c r="Q9">
-        <v>0.03932292711166666</v>
+        <v>0.09932141945333334</v>
       </c>
       <c r="R9">
-        <v>0.353906344005</v>
+        <v>0.8938927750800001</v>
       </c>
       <c r="S9">
-        <v>0.02451264572616403</v>
+        <v>0.2439671991512248</v>
       </c>
       <c r="T9">
-        <v>0.02451264572616403</v>
+        <v>0.2439671991512248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7943223333333332</v>
+        <v>2.006290666666667</v>
       </c>
       <c r="H10">
-        <v>2.382967</v>
+        <v>6.018872</v>
       </c>
       <c r="I10">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591371</v>
       </c>
       <c r="J10">
-        <v>0.444380439679788</v>
+        <v>0.6645504533591372</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1048,28 +1048,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.06885166666666667</v>
+        <v>0.078518</v>
       </c>
       <c r="N10">
-        <v>0.206555</v>
+        <v>0.235554</v>
       </c>
       <c r="O10">
-        <v>0.07671859609296189</v>
+        <v>0.582268968841538</v>
       </c>
       <c r="P10">
-        <v>0.07671859609296189</v>
+        <v>0.582268968841538</v>
       </c>
       <c r="Q10">
-        <v>0.05469041652055556</v>
+        <v>0.1575299305653333</v>
       </c>
       <c r="R10">
-        <v>0.492213748685</v>
+        <v>1.417769375088</v>
       </c>
       <c r="S10">
-        <v>0.03409224346340647</v>
+        <v>0.3869471072206013</v>
       </c>
       <c r="T10">
-        <v>0.03409224346340647</v>
+        <v>0.3869471072206014</v>
       </c>
     </row>
   </sheetData>
